--- a/examples/example-B-2004.xlsx
+++ b/examples/example-B-2004.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kajsiebert/Documents/projects/sfdl/projects/FrontDoorDataCollaboration/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kws/sfdl/FrontDoorDataCollaboration/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2E4642-48E5-1743-9C4D-4B9752BDB352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A94747-564E-834F-869B-42A66A240561}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="690">
   <si>
     <t>Annex A - Child level data</t>
   </si>
@@ -4544,13 +4544,13 @@
     <t>POLICE</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Jedi</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>May be 8 Jan 2000</t>
   </si>
 </sst>
 </file>
@@ -5086,15 +5086,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5109,6 +5101,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5140,7 +5141,6 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5555,22 +5555,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>680</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
     </row>
     <row r="2" spans="1:14" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
@@ -5639,25 +5639,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>681</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
     </row>
     <row r="2" spans="1:17" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -5757,42 +5757,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>682</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="78"/>
-      <c r="AD1" s="78"/>
-      <c r="AE1" s="78"/>
-      <c r="AF1" s="78"/>
-      <c r="AG1" s="78"/>
-      <c r="AH1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="79"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
     </row>
     <row r="2" spans="1:34" ht="112" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
@@ -5931,21 +5931,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -6024,24 +6024,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>684</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
     </row>
     <row r="2" spans="1:16" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -6116,27 +6116,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="81" t="s">
         <v>685</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -6366,11 +6366,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.2">
@@ -6388,7 +6388,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="66" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="19" t="s">
@@ -6400,7 +6400,7 @@
       <c r="D3" s="21"/>
     </row>
     <row r="4" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="22" t="s">
         <v>43</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="22" t="s">
         <v>45</v>
       </c>
@@ -6420,7 +6420,7 @@
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="22" t="s">
         <v>47</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="22" t="s">
         <v>49</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="22" t="s">
         <v>51</v>
       </c>
@@ -6450,7 +6450,7 @@
       <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="331.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="25" t="s">
         <v>53</v>
       </c>
@@ -6460,7 +6460,7 @@
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="67" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="19" t="s">
@@ -6472,7 +6472,7 @@
       <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="22" t="s">
         <v>43</v>
       </c>
@@ -6482,7 +6482,7 @@
       <c r="D11" s="24"/>
     </row>
     <row r="12" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="69"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="22" t="s">
         <v>45</v>
       </c>
@@ -6492,7 +6492,7 @@
       <c r="D12" s="24"/>
     </row>
     <row r="13" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="22" t="s">
         <v>47</v>
       </c>
@@ -6502,7 +6502,7 @@
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="69"/>
+      <c r="A14" s="67"/>
       <c r="B14" s="22" t="s">
         <v>49</v>
       </c>
@@ -6512,7 +6512,7 @@
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
+      <c r="A15" s="67"/>
       <c r="B15" s="22" t="s">
         <v>56</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="69"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="22" t="s">
         <v>58</v>
       </c>
@@ -6532,7 +6532,7 @@
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="69"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="28" t="s">
         <v>60</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="68" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -6554,7 +6554,7 @@
       <c r="D18" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="22" t="s">
         <v>43</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="22" t="s">
         <v>45</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="70"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="22" t="s">
         <v>47</v>
       </c>
@@ -6584,7 +6584,7 @@
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="22" t="s">
         <v>49</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="22" t="s">
         <v>63</v>
       </c>
@@ -6604,7 +6604,7 @@
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" ht="333" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="22" t="s">
         <v>65</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="113" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="22" t="s">
         <v>67</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="22" t="s">
         <v>69</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="70"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="22" t="s">
         <v>71</v>
       </c>
@@ -6644,7 +6644,7 @@
       <c r="D27" s="24"/>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="70"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="25" t="s">
         <v>73</v>
       </c>
@@ -6654,7 +6654,7 @@
       <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="68" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -6666,7 +6666,7 @@
       <c r="D29" s="21"/>
     </row>
     <row r="30" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="22" t="s">
         <v>43</v>
       </c>
@@ -6676,7 +6676,7 @@
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="22" t="s">
         <v>45</v>
       </c>
@@ -6686,7 +6686,7 @@
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="70"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="22" t="s">
         <v>47</v>
       </c>
@@ -6696,7 +6696,7 @@
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="70"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="22" t="s">
         <v>49</v>
       </c>
@@ -6706,7 +6706,7 @@
       <c r="D33" s="24"/>
     </row>
     <row r="34" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="70"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="22" t="s">
         <v>76</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="70"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="22" t="s">
         <v>78</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="70"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="22" t="s">
         <v>80</v>
       </c>
@@ -6736,7 +6736,7 @@
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="70"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="22" t="s">
         <v>82</v>
       </c>
@@ -6746,7 +6746,7 @@
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="70"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="22" t="s">
         <v>84</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="70"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="22" t="s">
         <v>71</v>
       </c>
@@ -6766,7 +6766,7 @@
       <c r="D39" s="24"/>
     </row>
     <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="70"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="25" t="s">
         <v>73</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="D40" s="27"/>
     </row>
     <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="68" t="s">
         <v>88</v>
       </c>
       <c r="B41" s="19" t="s">
@@ -6788,7 +6788,7 @@
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="70"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="22" t="s">
         <v>43</v>
       </c>
@@ -6798,7 +6798,7 @@
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" ht="336" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="22" t="s">
         <v>45</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="70"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="22" t="s">
         <v>47</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="70"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="22" t="s">
         <v>49</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="70"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="22" t="s">
         <v>76</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="70"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="22" t="s">
         <v>90</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="70"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="22" t="s">
         <v>92</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="70"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="22" t="s">
         <v>94</v>
       </c>
@@ -6868,7 +6868,7 @@
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="70"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="22" t="s">
         <v>96</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" ht="191.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="70"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="22" t="s">
         <v>98</v>
       </c>
@@ -6888,7 +6888,7 @@
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" ht="188" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="70"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="22" t="s">
         <v>100</v>
       </c>
@@ -6898,7 +6898,7 @@
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="70"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="22" t="s">
         <v>71</v>
       </c>
@@ -6908,7 +6908,7 @@
       <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="70"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="32" t="s">
         <v>73</v>
       </c>
@@ -6918,7 +6918,7 @@
       <c r="D54" s="34"/>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63" t="s">
+      <c r="A55" s="69" t="s">
         <v>104</v>
       </c>
       <c r="B55" s="19" t="s">
@@ -6930,7 +6930,7 @@
       <c r="D55" s="21"/>
     </row>
     <row r="56" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
+      <c r="A56" s="69"/>
       <c r="B56" s="22" t="s">
         <v>43</v>
       </c>
@@ -6940,7 +6940,7 @@
       <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="63"/>
+      <c r="A57" s="69"/>
       <c r="B57" s="22" t="s">
         <v>45</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="22" t="s">
         <v>47</v>
       </c>
@@ -6960,7 +6960,7 @@
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="22" t="s">
         <v>49</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="22" t="s">
         <v>76</v>
       </c>
@@ -6980,7 +6980,7 @@
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="63"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="22" t="s">
         <v>105</v>
       </c>
@@ -6990,7 +6990,7 @@
       <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:4" ht="211" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="63"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="22" t="s">
         <v>107</v>
       </c>
@@ -7000,7 +7000,7 @@
       <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="63"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="22" t="s">
         <v>109</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="63"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="22" t="s">
         <v>111</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" ht="211" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="63"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="22" t="s">
         <v>113</v>
       </c>
@@ -7030,7 +7030,7 @@
       <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="63"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="22" t="s">
         <v>115</v>
       </c>
@@ -7040,7 +7040,7 @@
       <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="63"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="22" t="s">
         <v>71</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="63"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="25" t="s">
         <v>73</v>
       </c>
@@ -7060,7 +7060,7 @@
       <c r="D68" s="27"/>
     </row>
     <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="70" t="s">
         <v>119</v>
       </c>
       <c r="B69" s="28" t="s">
@@ -7072,7 +7072,7 @@
       <c r="D69" s="30"/>
     </row>
     <row r="70" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64"/>
+      <c r="A70" s="70"/>
       <c r="B70" s="22" t="s">
         <v>43</v>
       </c>
@@ -7082,7 +7082,7 @@
       <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="64"/>
+      <c r="A71" s="70"/>
       <c r="B71" s="22" t="s">
         <v>45</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="64"/>
+      <c r="A72" s="70"/>
       <c r="B72" s="22" t="s">
         <v>47</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64"/>
+      <c r="A73" s="70"/>
       <c r="B73" s="22" t="s">
         <v>49</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="64"/>
+      <c r="A74" s="70"/>
       <c r="B74" s="22" t="s">
         <v>76</v>
       </c>
@@ -7122,7 +7122,7 @@
       <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="64"/>
+      <c r="A75" s="70"/>
       <c r="B75" s="22" t="s">
         <v>120</v>
       </c>
@@ -7132,7 +7132,7 @@
       <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" ht="155" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
+      <c r="A76" s="70"/>
       <c r="B76" s="22" t="s">
         <v>122</v>
       </c>
@@ -7142,7 +7142,7 @@
       <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" ht="155" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64"/>
+      <c r="A77" s="70"/>
       <c r="B77" s="22" t="s">
         <v>124</v>
       </c>
@@ -7152,7 +7152,7 @@
       <c r="D77" s="24"/>
     </row>
     <row r="78" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="64"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="22" t="s">
         <v>126</v>
       </c>
@@ -7162,7 +7162,7 @@
       <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="64"/>
+      <c r="A79" s="70"/>
       <c r="B79" s="22" t="s">
         <v>128</v>
       </c>
@@ -7172,7 +7172,7 @@
       <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="64"/>
+      <c r="A80" s="70"/>
       <c r="B80" s="22" t="s">
         <v>130</v>
       </c>
@@ -7182,7 +7182,7 @@
       <c r="D80" s="24"/>
     </row>
     <row r="81" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="64"/>
+      <c r="A81" s="70"/>
       <c r="B81" s="22" t="s">
         <v>132</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="D81" s="24"/>
     </row>
     <row r="82" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="64"/>
+      <c r="A82" s="70"/>
       <c r="B82" s="22" t="s">
         <v>134</v>
       </c>
@@ -7202,7 +7202,7 @@
       <c r="D82" s="24"/>
     </row>
     <row r="83" spans="1:4" ht="225" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="64"/>
+      <c r="A83" s="70"/>
       <c r="B83" s="22" t="s">
         <v>136</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="D83" s="24"/>
     </row>
     <row r="84" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="64"/>
+      <c r="A84" s="70"/>
       <c r="B84" s="22" t="s">
         <v>71</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="D84" s="24"/>
     </row>
     <row r="85" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="64"/>
+      <c r="A85" s="70"/>
       <c r="B85" s="25" t="s">
         <v>73</v>
       </c>
@@ -7232,7 +7232,7 @@
       <c r="D85" s="27"/>
     </row>
     <row r="86" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="63" t="s">
+      <c r="A86" s="69" t="s">
         <v>138</v>
       </c>
       <c r="B86" s="19" t="s">
@@ -7244,7 +7244,7 @@
       <c r="D86" s="21"/>
     </row>
     <row r="87" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="63"/>
+      <c r="A87" s="69"/>
       <c r="B87" s="22" t="s">
         <v>43</v>
       </c>
@@ -7254,7 +7254,7 @@
       <c r="D87" s="24"/>
     </row>
     <row r="88" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="63"/>
+      <c r="A88" s="69"/>
       <c r="B88" s="22" t="s">
         <v>45</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="63"/>
+      <c r="A89" s="69"/>
       <c r="B89" s="22" t="s">
         <v>47</v>
       </c>
@@ -7274,7 +7274,7 @@
       <c r="D89" s="24"/>
     </row>
     <row r="90" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="63"/>
+      <c r="A90" s="69"/>
       <c r="B90" s="22" t="s">
         <v>49</v>
       </c>
@@ -7284,7 +7284,7 @@
       <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4" ht="183" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="63"/>
+      <c r="A91" s="69"/>
       <c r="B91" s="22" t="s">
         <v>141</v>
       </c>
@@ -7294,7 +7294,7 @@
       <c r="D91" s="24"/>
     </row>
     <row r="92" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="63"/>
+      <c r="A92" s="69"/>
       <c r="B92" s="22" t="s">
         <v>76</v>
       </c>
@@ -7304,7 +7304,7 @@
       <c r="D92" s="24"/>
     </row>
     <row r="93" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
+      <c r="A93" s="69"/>
       <c r="B93" s="22" t="s">
         <v>143</v>
       </c>
@@ -7314,7 +7314,7 @@
       <c r="D93" s="24"/>
     </row>
     <row r="94" spans="1:4" ht="155" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="63"/>
+      <c r="A94" s="69"/>
       <c r="B94" s="22" t="s">
         <v>145</v>
       </c>
@@ -7324,7 +7324,7 @@
       <c r="D94" s="24"/>
     </row>
     <row r="95" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="63"/>
+      <c r="A95" s="69"/>
       <c r="B95" s="22" t="s">
         <v>147</v>
       </c>
@@ -7334,7 +7334,7 @@
       <c r="D95" s="24"/>
     </row>
     <row r="96" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="63"/>
+      <c r="A96" s="69"/>
       <c r="B96" s="22" t="s">
         <v>149</v>
       </c>
@@ -7344,7 +7344,7 @@
       <c r="D96" s="24"/>
     </row>
     <row r="97" spans="1:4" ht="239" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="63"/>
+      <c r="A97" s="69"/>
       <c r="B97" s="22" t="s">
         <v>151</v>
       </c>
@@ -7354,7 +7354,7 @@
       <c r="D97" s="24"/>
     </row>
     <row r="98" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="63"/>
+      <c r="A98" s="69"/>
       <c r="B98" s="22" t="s">
         <v>153</v>
       </c>
@@ -7364,7 +7364,7 @@
       <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="63"/>
+      <c r="A99" s="69"/>
       <c r="B99" s="22" t="s">
         <v>155</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="D99" s="24"/>
     </row>
     <row r="100" spans="1:4" ht="169" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="63"/>
+      <c r="A100" s="69"/>
       <c r="B100" s="22" t="s">
         <v>157</v>
       </c>
@@ -7384,7 +7384,7 @@
       <c r="D100" s="24"/>
     </row>
     <row r="101" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="63"/>
+      <c r="A101" s="69"/>
       <c r="B101" s="22" t="s">
         <v>159</v>
       </c>
@@ -7394,7 +7394,7 @@
       <c r="D101" s="24"/>
     </row>
     <row r="102" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="63"/>
+      <c r="A102" s="69"/>
       <c r="B102" s="22" t="s">
         <v>161</v>
       </c>
@@ -7404,7 +7404,7 @@
       <c r="D102" s="24"/>
     </row>
     <row r="103" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="63"/>
+      <c r="A103" s="69"/>
       <c r="B103" s="22" t="s">
         <v>163</v>
       </c>
@@ -7414,7 +7414,7 @@
       <c r="D103" s="24"/>
     </row>
     <row r="104" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="63"/>
+      <c r="A104" s="69"/>
       <c r="B104" s="22" t="s">
         <v>165</v>
       </c>
@@ -7424,7 +7424,7 @@
       <c r="D104" s="24"/>
     </row>
     <row r="105" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="63"/>
+      <c r="A105" s="69"/>
       <c r="B105" s="22" t="s">
         <v>167</v>
       </c>
@@ -7434,7 +7434,7 @@
       <c r="D105" s="24"/>
     </row>
     <row r="106" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="63"/>
+      <c r="A106" s="69"/>
       <c r="B106" s="22" t="s">
         <v>169</v>
       </c>
@@ -7444,7 +7444,7 @@
       <c r="D106" s="24"/>
     </row>
     <row r="107" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="63"/>
+      <c r="A107" s="69"/>
       <c r="B107" s="22" t="s">
         <v>171</v>
       </c>
@@ -7454,7 +7454,7 @@
       <c r="D107" s="24"/>
     </row>
     <row r="108" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="63"/>
+      <c r="A108" s="69"/>
       <c r="B108" s="22" t="s">
         <v>173</v>
       </c>
@@ -7464,7 +7464,7 @@
       <c r="D108" s="24"/>
     </row>
     <row r="109" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="63"/>
+      <c r="A109" s="69"/>
       <c r="B109" s="22" t="s">
         <v>175</v>
       </c>
@@ -7474,7 +7474,7 @@
       <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="63"/>
+      <c r="A110" s="69"/>
       <c r="B110" s="22" t="s">
         <v>177</v>
       </c>
@@ -7484,7 +7484,7 @@
       <c r="D110" s="24"/>
     </row>
     <row r="111" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="63"/>
+      <c r="A111" s="69"/>
       <c r="B111" s="22" t="s">
         <v>179</v>
       </c>
@@ -7494,7 +7494,7 @@
       <c r="D111" s="24"/>
     </row>
     <row r="112" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="63"/>
+      <c r="A112" s="69"/>
       <c r="B112" s="22" t="s">
         <v>181</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="D112" s="24"/>
     </row>
     <row r="113" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="63"/>
+      <c r="A113" s="69"/>
       <c r="B113" s="22" t="s">
         <v>183</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="D113" s="24"/>
     </row>
     <row r="114" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
+      <c r="A114" s="69"/>
       <c r="B114" s="22" t="s">
         <v>185</v>
       </c>
@@ -7524,7 +7524,7 @@
       <c r="D114" s="24"/>
     </row>
     <row r="115" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="63"/>
+      <c r="A115" s="69"/>
       <c r="B115" s="22" t="s">
         <v>187</v>
       </c>
@@ -7534,7 +7534,7 @@
       <c r="D115" s="24"/>
     </row>
     <row r="116" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="63"/>
+      <c r="A116" s="69"/>
       <c r="B116" s="22" t="s">
         <v>189</v>
       </c>
@@ -7544,7 +7544,7 @@
       <c r="D116" s="24"/>
     </row>
     <row r="117" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="63"/>
+      <c r="A117" s="69"/>
       <c r="B117" s="22" t="s">
         <v>191</v>
       </c>
@@ -7554,7 +7554,7 @@
       <c r="D117" s="24"/>
     </row>
     <row r="118" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="63"/>
+      <c r="A118" s="69"/>
       <c r="B118" s="22" t="s">
         <v>71</v>
       </c>
@@ -7564,7 +7564,7 @@
       <c r="D118" s="24"/>
     </row>
     <row r="119" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="63"/>
+      <c r="A119" s="69"/>
       <c r="B119" s="25" t="s">
         <v>73</v>
       </c>
@@ -7574,7 +7574,7 @@
       <c r="D119" s="27"/>
     </row>
     <row r="120" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="65" t="s">
+      <c r="A120" s="71" t="s">
         <v>194</v>
       </c>
       <c r="B120" s="36" t="s">
@@ -7586,7 +7586,7 @@
       <c r="D120" s="21"/>
     </row>
     <row r="121" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="65"/>
+      <c r="A121" s="71"/>
       <c r="B121" s="22" t="s">
         <v>43</v>
       </c>
@@ -7596,7 +7596,7 @@
       <c r="D121" s="24"/>
     </row>
     <row r="122" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="65"/>
+      <c r="A122" s="71"/>
       <c r="B122" s="37" t="s">
         <v>45</v>
       </c>
@@ -7606,7 +7606,7 @@
       <c r="D122" s="24"/>
     </row>
     <row r="123" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="65"/>
+      <c r="A123" s="71"/>
       <c r="B123" s="37" t="s">
         <v>47</v>
       </c>
@@ -7616,7 +7616,7 @@
       <c r="D123" s="24"/>
     </row>
     <row r="124" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="65"/>
+      <c r="A124" s="71"/>
       <c r="B124" s="22" t="s">
         <v>49</v>
       </c>
@@ -7626,7 +7626,7 @@
       <c r="D124" s="24"/>
     </row>
     <row r="125" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="65"/>
+      <c r="A125" s="71"/>
       <c r="B125" s="22" t="s">
         <v>76</v>
       </c>
@@ -7636,7 +7636,7 @@
       <c r="D125" s="24"/>
     </row>
     <row r="126" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="65"/>
+      <c r="A126" s="71"/>
       <c r="B126" s="37" t="s">
         <v>71</v>
       </c>
@@ -7646,7 +7646,7 @@
       <c r="D126" s="24"/>
     </row>
     <row r="127" spans="1:4" ht="13.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="65"/>
+      <c r="A127" s="71"/>
       <c r="B127" s="37" t="s">
         <v>73</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="D127" s="24"/>
     </row>
     <row r="128" spans="1:4" ht="113" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="65"/>
+      <c r="A128" s="71"/>
       <c r="B128" s="37" t="s">
         <v>198</v>
       </c>
@@ -7666,7 +7666,7 @@
       <c r="D128" s="24"/>
     </row>
     <row r="129" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="65"/>
+      <c r="A129" s="71"/>
       <c r="B129" s="37" t="s">
         <v>200</v>
       </c>
@@ -7676,7 +7676,7 @@
       <c r="D129" s="24"/>
     </row>
     <row r="130" spans="1:4" ht="307" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="65"/>
+      <c r="A130" s="71"/>
       <c r="B130" s="37" t="s">
         <v>202</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="D130" s="24"/>
     </row>
     <row r="131" spans="1:4" ht="113" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="65"/>
+      <c r="A131" s="71"/>
       <c r="B131" s="37" t="s">
         <v>204</v>
       </c>
@@ -7696,7 +7696,7 @@
       <c r="D131" s="24"/>
     </row>
     <row r="132" spans="1:4" ht="197" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="65"/>
+      <c r="A132" s="71"/>
       <c r="B132" s="39" t="s">
         <v>206</v>
       </c>
@@ -7706,7 +7706,7 @@
       <c r="D132" s="27"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="66" t="s">
+      <c r="A133" s="64" t="s">
         <v>208</v>
       </c>
       <c r="B133" s="19" t="s">
@@ -7718,7 +7718,7 @@
       <c r="D133" s="21"/>
     </row>
     <row r="134" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="66"/>
+      <c r="A134" s="64"/>
       <c r="B134" s="22" t="s">
         <v>209</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="D134" s="24"/>
     </row>
     <row r="135" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="66"/>
+      <c r="A135" s="64"/>
       <c r="B135" s="22" t="s">
         <v>43</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="D135" s="24"/>
     </row>
     <row r="136" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="66"/>
+      <c r="A136" s="64"/>
       <c r="B136" s="22" t="s">
         <v>45</v>
       </c>
@@ -7748,7 +7748,7 @@
       <c r="D136" s="24"/>
     </row>
     <row r="137" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="66"/>
+      <c r="A137" s="64"/>
       <c r="B137" s="22" t="s">
         <v>47</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="D137" s="24"/>
     </row>
     <row r="138" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="66"/>
+      <c r="A138" s="64"/>
       <c r="B138" s="22" t="s">
         <v>49</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="D138" s="24"/>
     </row>
     <row r="139" spans="1:4" ht="127" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="66"/>
+      <c r="A139" s="64"/>
       <c r="B139" s="22" t="s">
         <v>76</v>
       </c>
@@ -7778,7 +7778,7 @@
       <c r="D139" s="24"/>
     </row>
     <row r="140" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="66"/>
+      <c r="A140" s="64"/>
       <c r="B140" s="22" t="s">
         <v>211</v>
       </c>
@@ -7788,7 +7788,7 @@
       <c r="D140" s="24"/>
     </row>
     <row r="141" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="66"/>
+      <c r="A141" s="64"/>
       <c r="B141" s="22" t="s">
         <v>213</v>
       </c>
@@ -7798,7 +7798,7 @@
       <c r="D141" s="24"/>
     </row>
     <row r="142" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="66"/>
+      <c r="A142" s="64"/>
       <c r="B142" s="22" t="s">
         <v>215</v>
       </c>
@@ -7808,7 +7808,7 @@
       <c r="D142" s="24"/>
     </row>
     <row r="143" spans="1:4" ht="113" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="66"/>
+      <c r="A143" s="64"/>
       <c r="B143" s="22" t="s">
         <v>217</v>
       </c>
@@ -7818,7 +7818,7 @@
       <c r="D143" s="24"/>
     </row>
     <row r="144" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="66"/>
+      <c r="A144" s="64"/>
       <c r="B144" s="22" t="s">
         <v>219</v>
       </c>
@@ -7828,7 +7828,7 @@
       <c r="D144" s="24"/>
     </row>
     <row r="145" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="66"/>
+      <c r="A145" s="64"/>
       <c r="B145" s="22" t="s">
         <v>221</v>
       </c>
@@ -7838,7 +7838,7 @@
       <c r="D145" s="24"/>
     </row>
     <row r="146" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="66"/>
+      <c r="A146" s="64"/>
       <c r="B146" s="22" t="s">
         <v>223</v>
       </c>
@@ -7848,7 +7848,7 @@
       <c r="D146" s="24"/>
     </row>
     <row r="147" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="66"/>
+      <c r="A147" s="64"/>
       <c r="B147" s="22" t="s">
         <v>225</v>
       </c>
@@ -7858,7 +7858,7 @@
       <c r="D147" s="24"/>
     </row>
     <row r="148" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="66"/>
+      <c r="A148" s="64"/>
       <c r="B148" s="25" t="s">
         <v>227</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="D148" s="27"/>
     </row>
     <row r="149" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="66" t="s">
+      <c r="A149" s="64" t="s">
         <v>229</v>
       </c>
       <c r="B149" s="19" t="s">
@@ -7880,7 +7880,7 @@
       <c r="D149" s="21"/>
     </row>
     <row r="150" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="66"/>
+      <c r="A150" s="64"/>
       <c r="B150" s="22" t="s">
         <v>209</v>
       </c>
@@ -7890,7 +7890,7 @@
       <c r="D150" s="24"/>
     </row>
     <row r="151" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="66"/>
+      <c r="A151" s="64"/>
       <c r="B151" s="22" t="s">
         <v>43</v>
       </c>
@@ -7900,7 +7900,7 @@
       <c r="D151" s="24"/>
     </row>
     <row r="152" spans="1:4" ht="346" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="66"/>
+      <c r="A152" s="64"/>
       <c r="B152" s="22" t="s">
         <v>45</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="D152" s="24"/>
     </row>
     <row r="153" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="66"/>
+      <c r="A153" s="64"/>
       <c r="B153" s="22" t="s">
         <v>235</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="D153" s="24"/>
     </row>
     <row r="154" spans="1:4" ht="99" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="66"/>
+      <c r="A154" s="64"/>
       <c r="B154" s="22" t="s">
         <v>237</v>
       </c>
@@ -7930,7 +7930,7 @@
       <c r="D154" s="24"/>
     </row>
     <row r="155" spans="1:4" ht="71" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="66"/>
+      <c r="A155" s="64"/>
       <c r="B155" s="22" t="s">
         <v>239</v>
       </c>
@@ -7940,7 +7940,7 @@
       <c r="D155" s="24"/>
     </row>
     <row r="156" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="66"/>
+      <c r="A156" s="64"/>
       <c r="B156" s="22" t="s">
         <v>241</v>
       </c>
@@ -7950,7 +7950,7 @@
       <c r="D156" s="24"/>
     </row>
     <row r="157" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="66"/>
+      <c r="A157" s="64"/>
       <c r="B157" s="22" t="s">
         <v>243</v>
       </c>
@@ -7960,7 +7960,7 @@
       <c r="D157" s="24"/>
     </row>
     <row r="158" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="66"/>
+      <c r="A158" s="64"/>
       <c r="B158" s="22" t="s">
         <v>245</v>
       </c>
@@ -7970,7 +7970,7 @@
       <c r="D158" s="24"/>
     </row>
     <row r="159" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="66"/>
+      <c r="A159" s="64"/>
       <c r="B159" s="22" t="s">
         <v>247</v>
       </c>
@@ -7980,7 +7980,7 @@
       <c r="D159" s="24"/>
     </row>
     <row r="160" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="66"/>
+      <c r="A160" s="64"/>
       <c r="B160" s="22" t="s">
         <v>249</v>
       </c>
@@ -7990,7 +7990,7 @@
       <c r="D160" s="24"/>
     </row>
     <row r="161" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="66"/>
+      <c r="A161" s="64"/>
       <c r="B161" s="22" t="s">
         <v>251</v>
       </c>
@@ -8000,7 +8000,7 @@
       <c r="D161" s="24"/>
     </row>
     <row r="162" spans="1:4" ht="57" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="66"/>
+      <c r="A162" s="64"/>
       <c r="B162" s="22" t="s">
         <v>253</v>
       </c>
@@ -8010,7 +8010,7 @@
       <c r="D162" s="24"/>
     </row>
     <row r="163" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="66"/>
+      <c r="A163" s="64"/>
       <c r="B163" s="22" t="s">
         <v>255</v>
       </c>
@@ -8020,7 +8020,7 @@
       <c r="D163" s="24"/>
     </row>
     <row r="164" spans="1:4" ht="29" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="66"/>
+      <c r="A164" s="64"/>
       <c r="B164" s="22" t="s">
         <v>257</v>
       </c>
@@ -8030,7 +8030,7 @@
       <c r="D164" s="24"/>
     </row>
     <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="66"/>
+      <c r="A165" s="64"/>
       <c r="B165" s="22" t="s">
         <v>259</v>
       </c>
@@ -8040,7 +8040,7 @@
       <c r="D165" s="24"/>
     </row>
     <row r="166" spans="1:4" ht="43" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="66"/>
+      <c r="A166" s="64"/>
       <c r="B166" s="22" t="s">
         <v>261</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="D166" s="24"/>
     </row>
     <row r="167" spans="1:4" ht="85" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="66"/>
+      <c r="A167" s="64"/>
       <c r="B167" s="25" t="s">
         <v>263</v>
       </c>
@@ -8192,17 +8192,17 @@
         <v>43</v>
       </c>
       <c r="B1" s="45"/>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="45"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
       <c r="J1" s="45"/>
       <c r="K1" s="46" t="s">
         <v>67</v>
@@ -8274,23 +8274,23 @@
         <v>157</v>
       </c>
       <c r="AT1" s="45"/>
-      <c r="AU1" s="72" t="s">
+      <c r="AU1" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="AV1" s="72"/>
-      <c r="AW1" s="72"/>
+      <c r="AV1" s="73"/>
+      <c r="AW1" s="73"/>
       <c r="AX1" s="45"/>
-      <c r="AY1" s="74" t="s">
+      <c r="AY1" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
       <c r="BB1" s="45"/>
-      <c r="BC1" s="74" t="s">
+      <c r="BC1" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="74"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
       <c r="BF1" s="45"/>
       <c r="BG1" s="46" t="s">
         <v>181</v>
@@ -8316,21 +8316,21 @@
         <v>200</v>
       </c>
       <c r="BR1" s="45"/>
-      <c r="BS1" s="75" t="s">
+      <c r="BS1" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="BT1" s="75"/>
+      <c r="BT1" s="76"/>
       <c r="BU1" s="45"/>
       <c r="BV1" s="50" t="s">
         <v>204</v>
       </c>
       <c r="BW1" s="45"/>
-      <c r="BX1" s="71" t="s">
+      <c r="BX1" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="BY1" s="71"/>
-      <c r="BZ1" s="71"/>
-      <c r="CA1" s="71"/>
+      <c r="BY1" s="72"/>
+      <c r="BZ1" s="72"/>
+      <c r="CA1" s="72"/>
       <c r="CB1" s="45"/>
       <c r="CC1" s="46" t="s">
         <v>225</v>
@@ -10081,7 +10081,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10090,15 +10090,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>675</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:7" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -10167,10 +10167,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.796875" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10182,16 +10182,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -10221,340 +10221,262 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="62">
+        <v>36526</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" s="62">
+        <v>40179</v>
+      </c>
+      <c r="G3" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H3" t="s">
         <v>687</v>
-      </c>
-      <c r="C3" t="s">
-        <v>688</v>
-      </c>
-      <c r="D3" s="62">
-        <v>36530</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G3" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="62">
+        <v>36527</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" s="62">
+        <v>40179</v>
+      </c>
+      <c r="G4" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H4" t="s">
         <v>687</v>
-      </c>
-      <c r="C4" t="s">
-        <v>688</v>
-      </c>
-      <c r="D4" s="62">
-        <v>36531</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G4" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H4" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="62">
+        <v>36528</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5" s="62">
+        <v>40179</v>
+      </c>
+      <c r="G5" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H5" t="s">
         <v>687</v>
-      </c>
-      <c r="C5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D5" s="62">
-        <v>36532</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G5" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="62">
+        <v>36529</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="62">
+        <v>40179</v>
+      </c>
+      <c r="G6" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H6" t="s">
         <v>687</v>
-      </c>
-      <c r="C6" t="s">
-        <v>688</v>
-      </c>
-      <c r="D6" s="81">
-        <v>36533</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G6" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="62">
+        <v>36530</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="G7" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H7" t="s">
         <v>687</v>
-      </c>
-      <c r="C7" t="s">
-        <v>688</v>
-      </c>
-      <c r="D7" s="62">
-        <v>36534</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G7" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="62">
+        <v>36531</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="G8" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H8" t="s">
         <v>687</v>
-      </c>
-      <c r="C8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D8" s="62">
-        <v>36534</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G8" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D9" s="62">
+        <v>36532</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="G9" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H9" t="s">
         <v>687</v>
-      </c>
-      <c r="C9" t="s">
-        <v>688</v>
-      </c>
-      <c r="D9" s="62">
-        <v>36535</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G9" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>687</v>
-      </c>
-      <c r="C10" t="s">
-        <v>688</v>
-      </c>
-      <c r="D10" s="62">
-        <v>36536</v>
+        <v>276</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>689</v>
       </c>
       <c r="E10">
         <v>12</v>
       </c>
-      <c r="F10" s="62">
-        <v>36526</v>
+      <c r="F10" s="63" t="s">
+        <v>688</v>
       </c>
       <c r="G10" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>689</v>
+        <v>40193</v>
+      </c>
+      <c r="H10" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="62">
+        <v>36534</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="G11" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H11" t="s">
         <v>687</v>
-      </c>
-      <c r="C11" t="s">
-        <v>688</v>
-      </c>
-      <c r="D11" s="62">
-        <v>36537</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-      <c r="F11" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G11" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H11" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="62">
+        <v>36534</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="G12" s="62">
+        <v>40193</v>
+      </c>
+      <c r="H12" t="s">
         <v>687</v>
-      </c>
-      <c r="C12" t="s">
-        <v>688</v>
-      </c>
-      <c r="D12" s="62">
-        <v>36538</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="F12" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G12" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>1014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>687</v>
-      </c>
-      <c r="C13" t="s">
-        <v>688</v>
-      </c>
-      <c r="D13" s="62">
-        <v>36539</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G13" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>1015</v>
-      </c>
-      <c r="B14" t="s">
-        <v>687</v>
-      </c>
-      <c r="C14" t="s">
-        <v>688</v>
-      </c>
-      <c r="D14" s="62">
-        <v>36540</v>
-      </c>
-      <c r="E14">
-        <v>16</v>
-      </c>
-      <c r="F14" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G14" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>1016</v>
-      </c>
-      <c r="B15" t="s">
-        <v>687</v>
-      </c>
-      <c r="C15" t="s">
-        <v>688</v>
-      </c>
-      <c r="D15" s="62">
-        <v>36541</v>
-      </c>
-      <c r="E15">
-        <v>17</v>
-      </c>
-      <c r="F15" s="62">
-        <v>36526</v>
-      </c>
-      <c r="G15" s="62">
-        <v>36526</v>
-      </c>
-      <c r="H15" s="62" t="s">
-        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -10578,19 +10500,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="56" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -10654,20 +10576,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>678</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:12" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
@@ -10735,22 +10657,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>679</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
     </row>
     <row r="2" spans="1:14" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
